--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEDAR\OneDrive\Documents\UiPath\Students_Marksheet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5DD5A9-54D9-4C3F-B7FD-0910A60D3962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAAF5BB-92D8-4A51-A030-97F33FEFEA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Queue_Marksheet</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>Queue_API</t>
   </si>
 </sst>
 </file>
@@ -584,10 +584,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
